--- a/National-data/National level.xlsx
+++ b/National-data/National level.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Covid forcast\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -36,11 +31,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,19 +101,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -160,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,10 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,19 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E542"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A521" workbookViewId="0">
-      <selection activeCell="E536" sqref="E536"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>43892</v>
       </c>
@@ -446,7 +426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>43893</v>
       </c>
@@ -463,7 +443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>43894</v>
       </c>
@@ -480,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>43895</v>
       </c>
@@ -497,7 +477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>43896</v>
       </c>
@@ -514,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>43897</v>
       </c>
@@ -531,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>43898</v>
       </c>
@@ -548,7 +528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>43899</v>
       </c>
@@ -565,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>43900</v>
       </c>
@@ -582,7 +562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>43901</v>
       </c>
@@ -599,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>43902</v>
       </c>
@@ -616,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>43903</v>
       </c>
@@ -633,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>43904</v>
       </c>
@@ -650,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>43905</v>
       </c>
@@ -667,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>43906</v>
       </c>
@@ -684,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>43907</v>
       </c>
@@ -701,7 +681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>43908</v>
       </c>
@@ -718,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>43909</v>
       </c>
@@ -735,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>43910</v>
       </c>
@@ -752,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>43911</v>
       </c>
@@ -769,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>43912</v>
       </c>
@@ -786,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>43913</v>
       </c>
@@ -803,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>43914</v>
       </c>
@@ -820,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>43915</v>
       </c>
@@ -837,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>43916</v>
       </c>
@@ -854,7 +834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>43917</v>
       </c>
@@ -871,7 +851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>43918</v>
       </c>
@@ -888,7 +868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>43919</v>
       </c>
@@ -905,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>43920</v>
       </c>
@@ -922,7 +902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>43921</v>
       </c>
@@ -939,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>43922</v>
       </c>
@@ -956,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>43923</v>
       </c>
@@ -973,7 +953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>43924</v>
       </c>
@@ -990,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>43925</v>
       </c>
@@ -1007,7 +987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>43926</v>
       </c>
@@ -1024,7 +1004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>43927</v>
       </c>
@@ -1041,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>43928</v>
       </c>
@@ -1058,7 +1038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>43929</v>
       </c>
@@ -1075,7 +1055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>43930</v>
       </c>
@@ -1092,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>43931</v>
       </c>
@@ -1109,7 +1089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>43932</v>
       </c>
@@ -1126,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>43933</v>
       </c>
@@ -1143,7 +1123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>43934</v>
       </c>
@@ -1160,7 +1140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <v>43935</v>
       </c>
@@ -1177,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>43936</v>
       </c>
@@ -1194,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>43937</v>
       </c>
@@ -1211,7 +1191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>43938</v>
       </c>
@@ -1228,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="2">
         <v>43939</v>
       </c>
@@ -1245,7 +1225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>43940</v>
       </c>
@@ -1262,7 +1242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>43941</v>
       </c>
@@ -1279,7 +1259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
         <v>43942</v>
       </c>
@@ -1296,7 +1276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="2">
         <v>43943</v>
       </c>
@@ -1313,7 +1293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="2">
         <v>43944</v>
       </c>
@@ -1330,7 +1310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="2">
         <v>43945</v>
       </c>
@@ -1347,7 +1327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="2">
         <v>43946</v>
       </c>
@@ -1364,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="2">
         <v>43947</v>
       </c>
@@ -1381,7 +1361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="2">
         <v>43948</v>
       </c>
@@ -1398,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="2">
         <v>43949</v>
       </c>
@@ -1415,7 +1395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="2">
         <v>43950</v>
       </c>
@@ -1432,7 +1412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="2">
         <v>43951</v>
       </c>
@@ -1449,7 +1429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="2">
         <v>43952</v>
       </c>
@@ -1466,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="2">
         <v>43953</v>
       </c>
@@ -1483,7 +1463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="2">
         <v>43954</v>
       </c>
@@ -1500,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="2">
         <v>43955</v>
       </c>
@@ -1517,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="2">
         <v>43956</v>
       </c>
@@ -1534,7 +1514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="2">
         <v>43957</v>
       </c>
@@ -1551,7 +1531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="2">
         <v>43958</v>
       </c>
@@ -1568,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="2">
         <v>43959</v>
       </c>
@@ -1585,7 +1565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="2">
         <v>43960</v>
       </c>
@@ -1602,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="2">
         <v>43961</v>
       </c>
@@ -1619,7 +1599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="2">
         <v>43962</v>
       </c>
@@ -1636,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="2">
         <v>43963</v>
       </c>
@@ -1653,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="2">
         <v>43964</v>
       </c>
@@ -1670,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="2">
         <v>43965</v>
       </c>
@@ -1687,7 +1667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="2">
         <v>43966</v>
       </c>
@@ -1704,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="2">
         <v>43967</v>
       </c>
@@ -1721,7 +1701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="2">
         <v>43968</v>
       </c>
@@ -1738,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="2">
         <v>43969</v>
       </c>
@@ -1755,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="2">
         <v>43970</v>
       </c>
@@ -1772,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="2">
         <v>43971</v>
       </c>
@@ -1789,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="2">
         <v>43972</v>
       </c>
@@ -1806,7 +1786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="2">
         <v>43973</v>
       </c>
@@ -1823,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="2">
         <v>43974</v>
       </c>
@@ -1840,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="2">
         <v>43975</v>
       </c>
@@ -1857,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="2">
         <v>43976</v>
       </c>
@@ -1874,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="2">
         <v>43977</v>
       </c>
@@ -1891,7 +1871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="2">
         <v>43978</v>
       </c>
@@ -1908,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="2">
         <v>43979</v>
       </c>
@@ -1925,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="2">
         <v>43980</v>
       </c>
@@ -1942,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="2">
         <v>43981</v>
       </c>
@@ -1959,7 +1939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="2">
         <v>43982</v>
       </c>
@@ -1976,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="2">
         <v>43983</v>
       </c>
@@ -1993,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="2">
         <v>43984</v>
       </c>
@@ -2010,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="2">
         <v>43985</v>
       </c>
@@ -2027,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="2">
         <v>43986</v>
       </c>
@@ -2044,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="2">
         <v>43987</v>
       </c>
@@ -2061,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="2">
         <v>43988</v>
       </c>
@@ -2078,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="2">
         <v>43989</v>
       </c>
@@ -2095,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="2">
         <v>43990</v>
       </c>
@@ -2112,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="2">
         <v>43991</v>
       </c>
@@ -2129,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="2">
         <v>43992</v>
       </c>
@@ -2146,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="2">
         <v>43993</v>
       </c>
@@ -2163,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="2">
         <v>43994</v>
       </c>
@@ -2180,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="2">
         <v>43995</v>
       </c>
@@ -2197,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="2">
         <v>43996</v>
       </c>
@@ -2214,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="2">
         <v>43997</v>
       </c>
@@ -2231,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="2">
         <v>43998</v>
       </c>
@@ -2248,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="2">
         <v>43999</v>
       </c>
@@ -2265,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="2">
         <v>44000</v>
       </c>
@@ -2282,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="2">
         <v>44001</v>
       </c>
@@ -2299,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="2">
         <v>44002</v>
       </c>
@@ -2316,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="2">
         <v>44003</v>
       </c>
@@ -2333,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="2">
         <v>44004</v>
       </c>
@@ -2350,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="2">
         <v>44005</v>
       </c>
@@ -2367,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="2">
         <v>44006</v>
       </c>
@@ -2384,7 +2364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="2">
         <v>44007</v>
       </c>
@@ -2401,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="2">
         <v>44008</v>
       </c>
@@ -2418,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="2">
         <v>44009</v>
       </c>
@@ -2435,7 +2415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="2">
         <v>44010</v>
       </c>
@@ -2452,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="2">
         <v>44011</v>
       </c>
@@ -2469,7 +2449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="2">
         <v>44012</v>
       </c>
@@ -2486,7 +2466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="2">
         <v>44013</v>
       </c>
@@ -2503,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="2">
         <v>44014</v>
       </c>
@@ -2520,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="2">
         <v>44015</v>
       </c>
@@ -2537,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="2">
         <v>44016</v>
       </c>
@@ -2554,7 +2534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="2">
         <v>44017</v>
       </c>
@@ -2571,7 +2551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="2">
         <v>44018</v>
       </c>
@@ -2588,7 +2568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="2">
         <v>44019</v>
       </c>
@@ -2605,7 +2585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="2">
         <v>44020</v>
       </c>
@@ -2622,7 +2602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="2">
         <v>44021</v>
       </c>
@@ -2639,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="2">
         <v>44022</v>
       </c>
@@ -2656,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="2">
         <v>44023</v>
       </c>
@@ -2673,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="2">
         <v>44024</v>
       </c>
@@ -2690,7 +2670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="2">
         <v>44025</v>
       </c>
@@ -2707,7 +2687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="2">
         <v>44026</v>
       </c>
@@ -2724,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="2">
         <v>44027</v>
       </c>
@@ -2741,7 +2721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="2">
         <v>44028</v>
       </c>
@@ -2758,7 +2738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="2">
         <v>44029</v>
       </c>
@@ -2775,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="2">
         <v>44030</v>
       </c>
@@ -2792,7 +2772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="2">
         <v>44031</v>
       </c>
@@ -2809,7 +2789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="2">
         <v>44032</v>
       </c>
@@ -2826,7 +2806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="2">
         <v>44033</v>
       </c>
@@ -2843,7 +2823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="2">
         <v>44034</v>
       </c>
@@ -2860,7 +2840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="2">
         <v>44035</v>
       </c>
@@ -2877,7 +2857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="2">
         <v>44036</v>
       </c>
@@ -2894,7 +2874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="2">
         <v>44037</v>
       </c>
@@ -2911,7 +2891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="2">
         <v>44038</v>
       </c>
@@ -2928,7 +2908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="2">
         <v>44039</v>
       </c>
@@ -2945,7 +2925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="2">
         <v>44040</v>
       </c>
@@ -2962,7 +2942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="2">
         <v>44041</v>
       </c>
@@ -2979,7 +2959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="2">
         <v>44042</v>
       </c>
@@ -2996,7 +2976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="2">
         <v>44043</v>
       </c>
@@ -3013,7 +2993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="2">
         <v>44044</v>
       </c>
@@ -3030,7 +3010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="2">
         <v>44045</v>
       </c>
@@ -3047,7 +3027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="2">
         <v>44046</v>
       </c>
@@ -3064,7 +3044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="2">
         <v>44047</v>
       </c>
@@ -3081,7 +3061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="2">
         <v>44048</v>
       </c>
@@ -3098,7 +3078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="2">
         <v>44049</v>
       </c>
@@ -3115,7 +3095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="2">
         <v>44050</v>
       </c>
@@ -3132,7 +3112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="2">
         <v>44051</v>
       </c>
@@ -3149,7 +3129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="2">
         <v>44052</v>
       </c>
@@ -3166,7 +3146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="2">
         <v>44053</v>
       </c>
@@ -3183,7 +3163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="2">
         <v>44054</v>
       </c>
@@ -3200,7 +3180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="2">
         <v>44055</v>
       </c>
@@ -3217,7 +3197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="2">
         <v>44056</v>
       </c>
@@ -3234,7 +3214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="2">
         <v>44057</v>
       </c>
@@ -3251,7 +3231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="2">
         <v>44058</v>
       </c>
@@ -3268,7 +3248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="2">
         <v>44059</v>
       </c>
@@ -3285,7 +3265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="2">
         <v>44060</v>
       </c>
@@ -3302,7 +3282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="2">
         <v>44061</v>
       </c>
@@ -3319,7 +3299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="2">
         <v>44062</v>
       </c>
@@ -3336,7 +3316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="2">
         <v>44063</v>
       </c>
@@ -3353,7 +3333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="2">
         <v>44064</v>
       </c>
@@ -3370,7 +3350,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="2">
         <v>44065</v>
       </c>
@@ -3387,7 +3367,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="2">
         <v>44066</v>
       </c>
@@ -3404,7 +3384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="2">
         <v>44067</v>
       </c>
@@ -3421,7 +3401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="2">
         <v>44068</v>
       </c>
@@ -3438,7 +3418,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="2">
         <v>44069</v>
       </c>
@@ -3455,7 +3435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="2">
         <v>44070</v>
       </c>
@@ -3472,7 +3452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="2">
         <v>44071</v>
       </c>
@@ -3489,7 +3469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="2">
         <v>44072</v>
       </c>
@@ -3506,7 +3486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="2">
         <v>44073</v>
       </c>
@@ -3523,7 +3503,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="2">
         <v>44074</v>
       </c>
@@ -3540,7 +3520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="2">
         <v>44075</v>
       </c>
@@ -3557,7 +3537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="2">
         <v>44076</v>
       </c>
@@ -3574,7 +3554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="2">
         <v>44077</v>
       </c>
@@ -3591,7 +3571,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="2">
         <v>44078</v>
       </c>
@@ -3608,7 +3588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="2">
         <v>44079</v>
       </c>
@@ -3625,7 +3605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="2">
         <v>44080</v>
       </c>
@@ -3642,7 +3622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="2">
         <v>44081</v>
       </c>
@@ -3659,7 +3639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="2">
         <v>44082</v>
       </c>
@@ -3676,7 +3656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" s="2">
         <v>44083</v>
       </c>
@@ -3693,7 +3673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="2">
         <v>44084</v>
       </c>
@@ -3710,7 +3690,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="2">
         <v>44085</v>
       </c>
@@ -3727,7 +3707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="2">
         <v>44086</v>
       </c>
@@ -3744,7 +3724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="2">
         <v>44087</v>
       </c>
@@ -3761,7 +3741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="2">
         <v>44088</v>
       </c>
@@ -3778,7 +3758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" s="2">
         <v>44089</v>
       </c>
@@ -3795,7 +3775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="2">
         <v>44090</v>
       </c>
@@ -3812,7 +3792,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" s="2">
         <v>44091</v>
       </c>
@@ -3829,7 +3809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" s="2">
         <v>44092</v>
       </c>
@@ -3846,7 +3826,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" s="2">
         <v>44093</v>
       </c>
@@ -3863,7 +3843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" s="2">
         <v>44094</v>
       </c>
@@ -3880,7 +3860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" s="2">
         <v>44095</v>
       </c>
@@ -3897,7 +3877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="2">
         <v>44096</v>
       </c>
@@ -3914,7 +3894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" s="2">
         <v>44097</v>
       </c>
@@ -3931,7 +3911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" s="2">
         <v>44098</v>
       </c>
@@ -3948,7 +3928,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" s="2">
         <v>44099</v>
       </c>
@@ -3965,7 +3945,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" s="2">
         <v>44100</v>
       </c>
@@ -3982,7 +3962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" s="2">
         <v>44101</v>
       </c>
@@ -3999,7 +3979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" s="2">
         <v>44102</v>
       </c>
@@ -4016,7 +3996,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" s="2">
         <v>44103</v>
       </c>
@@ -4033,7 +4013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" s="2">
         <v>44104</v>
       </c>
@@ -4050,7 +4030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" s="2">
         <v>44105</v>
       </c>
@@ -4067,7 +4047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" s="2">
         <v>44106</v>
       </c>
@@ -4084,7 +4064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" s="2">
         <v>44107</v>
       </c>
@@ -4101,7 +4081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" s="2">
         <v>44108</v>
       </c>
@@ -4118,7 +4098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" s="2">
         <v>44109</v>
       </c>
@@ -4135,7 +4115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" s="2">
         <v>44110</v>
       </c>
@@ -4152,7 +4132,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" s="2">
         <v>44111</v>
       </c>
@@ -4169,7 +4149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" s="2">
         <v>44112</v>
       </c>
@@ -4186,7 +4166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" s="2">
         <v>44113</v>
       </c>
@@ -4203,7 +4183,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" s="2">
         <v>44114</v>
       </c>
@@ -4220,7 +4200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="2">
         <v>44115</v>
       </c>
@@ -4237,7 +4217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="2">
         <v>44116</v>
       </c>
@@ -4254,7 +4234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" s="2">
         <v>44117</v>
       </c>
@@ -4271,7 +4251,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" s="2">
         <v>44118</v>
       </c>
@@ -4288,7 +4268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="2">
         <v>44119</v>
       </c>
@@ -4305,7 +4285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="2">
         <v>44120</v>
       </c>
@@ -4322,7 +4302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="2">
         <v>44121</v>
       </c>
@@ -4339,7 +4319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" s="2">
         <v>44122</v>
       </c>
@@ -4356,7 +4336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" s="2">
         <v>44123</v>
       </c>
@@ -4373,7 +4353,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" s="2">
         <v>44124</v>
       </c>
@@ -4390,7 +4370,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" s="2">
         <v>44125</v>
       </c>
@@ -4407,7 +4387,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="2">
         <v>44126</v>
       </c>
@@ -4424,7 +4404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" s="2">
         <v>44127</v>
       </c>
@@ -4441,7 +4421,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" s="2">
         <v>44128</v>
       </c>
@@ -4458,7 +4438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="2">
         <v>44129</v>
       </c>
@@ -4475,7 +4455,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" s="2">
         <v>44130</v>
       </c>
@@ -4492,7 +4472,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" s="2">
         <v>44131</v>
       </c>
@@ -4509,7 +4489,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" s="2">
         <v>44132</v>
       </c>
@@ -4526,7 +4506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="2">
         <v>44133</v>
       </c>
@@ -4543,7 +4523,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="2">
         <v>44134</v>
       </c>
@@ -4560,7 +4540,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" s="2">
         <v>44135</v>
       </c>
@@ -4577,7 +4557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" s="2">
         <v>44136</v>
       </c>
@@ -4594,7 +4574,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" s="2">
         <v>44137</v>
       </c>
@@ -4611,7 +4591,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" s="2">
         <v>44138</v>
       </c>
@@ -4628,7 +4608,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="2">
         <v>44139</v>
       </c>
@@ -4645,7 +4625,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="2">
         <v>44140</v>
       </c>
@@ -4662,7 +4642,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="2">
         <v>44141</v>
       </c>
@@ -4679,7 +4659,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="2">
         <v>44142</v>
       </c>
@@ -4696,7 +4676,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" s="2">
         <v>44143</v>
       </c>
@@ -4713,7 +4693,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="2">
         <v>44144</v>
       </c>
@@ -4730,7 +4710,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" s="2">
         <v>44145</v>
       </c>
@@ -4747,7 +4727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" s="2">
         <v>44146</v>
       </c>
@@ -4764,7 +4744,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" s="2">
         <v>44147</v>
       </c>
@@ -4781,7 +4761,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" s="2">
         <v>44148</v>
       </c>
@@ -4798,7 +4778,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" s="2">
         <v>44149</v>
       </c>
@@ -4815,7 +4795,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" s="2">
         <v>44150</v>
       </c>
@@ -4832,7 +4812,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" s="2">
         <v>44151</v>
       </c>
@@ -4849,7 +4829,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" s="2">
         <v>44152</v>
       </c>
@@ -4866,7 +4846,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" s="2">
         <v>44153</v>
       </c>
@@ -4883,7 +4863,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" s="2">
         <v>44154</v>
       </c>
@@ -4900,7 +4880,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" s="2">
         <v>44155</v>
       </c>
@@ -4917,7 +4897,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" s="2">
         <v>44156</v>
       </c>
@@ -4934,7 +4914,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" s="2">
         <v>44157</v>
       </c>
@@ -4951,7 +4931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" s="2">
         <v>44158</v>
       </c>
@@ -4968,7 +4948,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" s="2">
         <v>44159</v>
       </c>
@@ -4985,7 +4965,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" s="2">
         <v>44160</v>
       </c>
@@ -5002,7 +4982,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" s="2">
         <v>44161</v>
       </c>
@@ -5019,7 +4999,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" s="2">
         <v>44162</v>
       </c>
@@ -5036,7 +5016,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" s="2">
         <v>44163</v>
       </c>
@@ -5053,7 +5033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" s="2">
         <v>44164</v>
       </c>
@@ -5070,7 +5050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" s="2">
         <v>44165</v>
       </c>
@@ -5087,7 +5067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" s="2">
         <v>44166</v>
       </c>
@@ -5104,7 +5084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" s="2">
         <v>44167</v>
       </c>
@@ -5121,7 +5101,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" s="2">
         <v>44168</v>
       </c>
@@ -5138,7 +5118,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" s="2">
         <v>44169</v>
       </c>
@@ -5155,7 +5135,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" s="2">
         <v>44170</v>
       </c>
@@ -5172,7 +5152,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" s="2">
         <v>44171</v>
       </c>
@@ -5189,7 +5169,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" s="2">
         <v>44172</v>
       </c>
@@ -5206,7 +5186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" s="2">
         <v>44173</v>
       </c>
@@ -5223,7 +5203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" s="2">
         <v>44174</v>
       </c>
@@ -5240,7 +5220,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" s="2">
         <v>44175</v>
       </c>
@@ -5257,7 +5237,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" s="2">
         <v>44176</v>
       </c>
@@ -5274,7 +5254,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" s="2">
         <v>44177</v>
       </c>
@@ -5291,7 +5271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" s="2">
         <v>44178</v>
       </c>
@@ -5308,7 +5288,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" s="2">
         <v>44179</v>
       </c>
@@ -5325,7 +5305,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" s="2">
         <v>44180</v>
       </c>
@@ -5342,7 +5322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" s="2">
         <v>44181</v>
       </c>
@@ -5359,7 +5339,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" s="2">
         <v>44182</v>
       </c>
@@ -5376,7 +5356,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" s="2">
         <v>44183</v>
       </c>
@@ -5393,7 +5373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" s="2">
         <v>44184</v>
       </c>
@@ -5410,7 +5390,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" s="2">
         <v>44185</v>
       </c>
@@ -5427,7 +5407,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" s="2">
         <v>44186</v>
       </c>
@@ -5444,7 +5424,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" s="2">
         <v>44187</v>
       </c>
@@ -5461,7 +5441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" s="2">
         <v>44188</v>
       </c>
@@ -5478,7 +5458,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" s="2">
         <v>44189</v>
       </c>
@@ -5495,7 +5475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" s="2">
         <v>44190</v>
       </c>
@@ -5512,7 +5492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" s="2">
         <v>44191</v>
       </c>
@@ -5529,7 +5509,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" s="2">
         <v>44192</v>
       </c>
@@ -5546,7 +5526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" s="2">
         <v>44193</v>
       </c>
@@ -5563,7 +5543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" s="2">
         <v>44194</v>
       </c>
@@ -5580,7 +5560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" s="2">
         <v>44195</v>
       </c>
@@ -5597,7 +5577,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" s="2">
         <v>44196</v>
       </c>
@@ -5614,7 +5594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" s="2">
         <v>44197</v>
       </c>
@@ -5631,7 +5611,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" s="2">
         <v>44198</v>
       </c>
@@ -5648,7 +5628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" s="2">
         <v>44199</v>
       </c>
@@ -5665,7 +5645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" s="2">
         <v>44200</v>
       </c>
@@ -5682,7 +5662,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" s="2">
         <v>44201</v>
       </c>
@@ -5699,7 +5679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" s="2">
         <v>44202</v>
       </c>
@@ -5716,7 +5696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" s="2">
         <v>44203</v>
       </c>
@@ -5733,7 +5713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" s="2">
         <v>44204</v>
       </c>
@@ -5750,7 +5730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" s="2">
         <v>44205</v>
       </c>
@@ -5767,7 +5747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" s="2">
         <v>44206</v>
       </c>
@@ -5784,7 +5764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" s="2">
         <v>44207</v>
       </c>
@@ -5801,7 +5781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318" s="2">
         <v>44208</v>
       </c>
@@ -5818,7 +5798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319" s="2">
         <v>44209</v>
       </c>
@@ -5835,7 +5815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320" s="2">
         <v>44210</v>
       </c>
@@ -5852,7 +5832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321" s="2">
         <v>44211</v>
       </c>
@@ -5869,7 +5849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322" s="2">
         <v>44212</v>
       </c>
@@ -5886,7 +5866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" s="2">
         <v>44213</v>
       </c>
@@ -5903,7 +5883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" s="2">
         <v>44214</v>
       </c>
@@ -5920,7 +5900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" s="2">
         <v>44215</v>
       </c>
@@ -5937,7 +5917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" s="2">
         <v>44216</v>
       </c>
@@ -5954,7 +5934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" s="2">
         <v>44217</v>
       </c>
@@ -5971,7 +5951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" s="2">
         <v>44218</v>
       </c>
@@ -5988,7 +5968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" s="2">
         <v>44219</v>
       </c>
@@ -6005,7 +5985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330" s="2">
         <v>44220</v>
       </c>
@@ -6022,7 +6002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" s="2">
         <v>44221</v>
       </c>
@@ -6039,7 +6019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5">
       <c r="A332" s="2">
         <v>44222</v>
       </c>
@@ -6056,7 +6036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5">
       <c r="A333" s="2">
         <v>44223</v>
       </c>
@@ -6073,7 +6053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" s="2">
         <v>44224</v>
       </c>
@@ -6090,7 +6070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335" s="2">
         <v>44225</v>
       </c>
@@ -6107,7 +6087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="A336" s="2">
         <v>44226</v>
       </c>
@@ -6124,7 +6104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" s="2">
         <v>44227</v>
       </c>
@@ -6141,7 +6121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" s="2">
         <v>44228</v>
       </c>
@@ -6158,7 +6138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" s="2">
         <v>44229</v>
       </c>
@@ -6175,7 +6155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" s="2">
         <v>44230</v>
       </c>
@@ -6192,7 +6172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341" s="2">
         <v>44231</v>
       </c>
@@ -6209,7 +6189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342" s="2">
         <v>44232</v>
       </c>
@@ -6226,7 +6206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343" s="2">
         <v>44233</v>
       </c>
@@ -6243,7 +6223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5">
       <c r="A344" s="2">
         <v>44234</v>
       </c>
@@ -6260,7 +6240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5">
       <c r="A345" s="2">
         <v>44235</v>
       </c>
@@ -6277,7 +6257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5">
       <c r="A346" s="2">
         <v>44236</v>
       </c>
@@ -6294,7 +6274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5">
       <c r="A347" s="2">
         <v>44237</v>
       </c>
@@ -6311,7 +6291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5">
       <c r="A348" s="2">
         <v>44238</v>
       </c>
@@ -6328,7 +6308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5">
       <c r="A349" s="2">
         <v>44239</v>
       </c>
@@ -6345,7 +6325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5">
       <c r="A350" s="2">
         <v>44240</v>
       </c>
@@ -6362,7 +6342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5">
       <c r="A351" s="2">
         <v>44241</v>
       </c>
@@ -6379,7 +6359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5">
       <c r="A352" s="2">
         <v>44242</v>
       </c>
@@ -6396,7 +6376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5">
       <c r="A353" s="2">
         <v>44243</v>
       </c>
@@ -6413,7 +6393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5">
       <c r="A354" s="2">
         <v>44244</v>
       </c>
@@ -6430,7 +6410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5">
       <c r="A355" s="2">
         <v>44245</v>
       </c>
@@ -6447,7 +6427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5">
       <c r="A356" s="2">
         <v>44246</v>
       </c>
@@ -6464,7 +6444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5">
       <c r="A357" s="2">
         <v>44247</v>
       </c>
@@ -6481,7 +6461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5">
       <c r="A358" s="2">
         <v>44248</v>
       </c>
@@ -6498,7 +6478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5">
       <c r="A359" s="2">
         <v>44249</v>
       </c>
@@ -6515,7 +6495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5">
       <c r="A360" s="2">
         <v>44250</v>
       </c>
@@ -6532,7 +6512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5">
       <c r="A361" s="2">
         <v>44251</v>
       </c>
@@ -6549,7 +6529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5">
       <c r="A362" s="2">
         <v>44252</v>
       </c>
@@ -6566,7 +6546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5">
       <c r="A363" s="2">
         <v>44253</v>
       </c>
@@ -6583,7 +6563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5">
       <c r="A364" s="2">
         <v>44254</v>
       </c>
@@ -6600,7 +6580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5">
       <c r="A365" s="2">
         <v>44255</v>
       </c>
@@ -6617,7 +6597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5">
       <c r="A366" s="2">
         <v>44256</v>
       </c>
@@ -6634,7 +6614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5">
       <c r="A367" s="2">
         <v>44257</v>
       </c>
@@ -6651,7 +6631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5">
       <c r="A368" s="2">
         <v>44258</v>
       </c>
@@ -6668,7 +6648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5">
       <c r="A369" s="2">
         <v>44259</v>
       </c>
@@ -6685,7 +6665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5">
       <c r="A370" s="2">
         <v>44260</v>
       </c>
@@ -6702,7 +6682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5">
       <c r="A371" s="2">
         <v>44261</v>
       </c>
@@ -6719,7 +6699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5">
       <c r="A372" s="2">
         <v>44262</v>
       </c>
@@ -6736,7 +6716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5">
       <c r="A373" s="2">
         <v>44263</v>
       </c>
@@ -6753,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5">
       <c r="A374" s="2">
         <v>44264</v>
       </c>
@@ -6770,7 +6750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5">
       <c r="A375" s="2">
         <v>44265</v>
       </c>
@@ -6787,7 +6767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5">
       <c r="A376" s="2">
         <v>44266</v>
       </c>
@@ -6804,7 +6784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5">
       <c r="A377" s="2">
         <v>44267</v>
       </c>
@@ -6821,7 +6801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5">
       <c r="A378" s="2">
         <v>44268</v>
       </c>
@@ -6838,7 +6818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5">
       <c r="A379" s="2">
         <v>44269</v>
       </c>
@@ -6855,7 +6835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5">
       <c r="A380" s="2">
         <v>44270</v>
       </c>
@@ -6872,7 +6852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5">
       <c r="A381" s="2">
         <v>44271</v>
       </c>
@@ -6889,7 +6869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5">
       <c r="A382" s="2">
         <v>44272</v>
       </c>
@@ -6906,7 +6886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5">
       <c r="A383" s="2">
         <v>44273</v>
       </c>
@@ -6923,7 +6903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5">
       <c r="A384" s="2">
         <v>44274</v>
       </c>
@@ -6940,7 +6920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5">
       <c r="A385" s="2">
         <v>44275</v>
       </c>
@@ -6957,7 +6937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5">
       <c r="A386" s="2">
         <v>44276</v>
       </c>
@@ -6974,7 +6954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5">
       <c r="A387" s="2">
         <v>44277</v>
       </c>
@@ -6991,7 +6971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5">
       <c r="A388" s="2">
         <v>44278</v>
       </c>
@@ -7008,7 +6988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5">
       <c r="A389" s="2">
         <v>44279</v>
       </c>
@@ -7025,7 +7005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5">
       <c r="A390" s="2">
         <v>44280</v>
       </c>
@@ -7042,7 +7022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5">
       <c r="A391" s="2">
         <v>44281</v>
       </c>
@@ -7059,7 +7039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5">
       <c r="A392" s="2">
         <v>44282</v>
       </c>
@@ -7076,7 +7056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5">
       <c r="A393" s="2">
         <v>44283</v>
       </c>
@@ -7093,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5">
       <c r="A394" s="2">
         <v>44284</v>
       </c>
@@ -7110,7 +7090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5">
       <c r="A395" s="2">
         <v>44285</v>
       </c>
@@ -7127,7 +7107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5">
       <c r="A396" s="2">
         <v>44286</v>
       </c>
@@ -7144,7 +7124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5">
       <c r="A397" s="2">
         <v>44287</v>
       </c>
@@ -7161,7 +7141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5">
       <c r="A398" s="2">
         <v>44288</v>
       </c>
@@ -7178,7 +7158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5">
       <c r="A399" s="2">
         <v>44289</v>
       </c>
@@ -7195,7 +7175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5">
       <c r="A400" s="2">
         <v>44290</v>
       </c>
@@ -7212,7 +7192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5">
       <c r="A401" s="2">
         <v>44291</v>
       </c>
@@ -7229,7 +7209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5">
       <c r="A402" s="2">
         <v>44292</v>
       </c>
@@ -7246,7 +7226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5">
       <c r="A403" s="2">
         <v>44293</v>
       </c>
@@ -7263,7 +7243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5">
       <c r="A404" s="2">
         <v>44294</v>
       </c>
@@ -7280,7 +7260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5">
       <c r="A405" s="2">
         <v>44295</v>
       </c>
@@ -7297,7 +7277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5">
       <c r="A406" s="2">
         <v>44296</v>
       </c>
@@ -7314,7 +7294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5">
       <c r="A407" s="2">
         <v>44297</v>
       </c>
@@ -7331,7 +7311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5">
       <c r="A408" s="2">
         <v>44298</v>
       </c>
@@ -7348,7 +7328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5">
       <c r="A409" s="2">
         <v>44299</v>
       </c>
@@ -7365,7 +7345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5">
       <c r="A410" s="2">
         <v>44300</v>
       </c>
@@ -7382,7 +7362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5">
       <c r="A411" s="2">
         <v>44301</v>
       </c>
@@ -7399,7 +7379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5">
       <c r="A412" s="2">
         <v>44302</v>
       </c>
@@ -7416,7 +7396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5">
       <c r="A413" s="2">
         <v>44303</v>
       </c>
@@ -7433,7 +7413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5">
       <c r="A414" s="2">
         <v>44304</v>
       </c>
@@ -7450,7 +7430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5">
       <c r="A415" s="2">
         <v>44305</v>
       </c>
@@ -7467,7 +7447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5">
       <c r="A416" s="2">
         <v>44306</v>
       </c>
@@ -7484,7 +7464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5">
       <c r="A417" s="2">
         <v>44307</v>
       </c>
@@ -7501,7 +7481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5">
       <c r="A418" s="2">
         <v>44308</v>
       </c>
@@ -7518,7 +7498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5">
       <c r="A419" s="2">
         <v>44309</v>
       </c>
@@ -7535,7 +7515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5">
       <c r="A420" s="2">
         <v>44310</v>
       </c>
@@ -7552,7 +7532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5">
       <c r="A421" s="2">
         <v>44311</v>
       </c>
@@ -7569,7 +7549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5">
       <c r="A422" s="2">
         <v>44312</v>
       </c>
@@ -7586,7 +7566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5">
       <c r="A423" s="2">
         <v>44313</v>
       </c>
@@ -7603,7 +7583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5">
       <c r="A424" s="2">
         <v>44314</v>
       </c>
@@ -7620,7 +7600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5">
       <c r="A425" s="2">
         <v>44315</v>
       </c>
@@ -7637,7 +7617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5">
       <c r="A426" s="2">
         <v>44316</v>
       </c>
@@ -7654,7 +7634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5">
       <c r="A427" s="2">
         <v>44317</v>
       </c>
@@ -7671,7 +7651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5">
       <c r="A428" s="2">
         <v>44318</v>
       </c>
@@ -7688,7 +7668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5">
       <c r="A429" s="2">
         <v>44319</v>
       </c>
@@ -7705,7 +7685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5">
       <c r="A430" s="2">
         <v>44320</v>
       </c>
@@ -7722,7 +7702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5">
       <c r="A431" s="2">
         <v>44321</v>
       </c>
@@ -7739,7 +7719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5">
       <c r="A432" s="2">
         <v>44322</v>
       </c>
@@ -7756,7 +7736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5">
       <c r="A433" s="2">
         <v>44323</v>
       </c>
@@ -7773,7 +7753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5">
       <c r="A434" s="2">
         <v>44324</v>
       </c>
@@ -7790,7 +7770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5">
       <c r="A435" s="2">
         <v>44325</v>
       </c>
@@ -7807,7 +7787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5">
       <c r="A436" s="2">
         <v>44326</v>
       </c>
@@ -7824,7 +7804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5">
       <c r="A437" s="2">
         <v>44327</v>
       </c>
@@ -7841,7 +7821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5">
       <c r="A438" s="2">
         <v>44328</v>
       </c>
@@ -7858,7 +7838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5">
       <c r="A439" s="2">
         <v>44329</v>
       </c>
@@ -7875,7 +7855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5">
       <c r="A440" s="2">
         <v>44330</v>
       </c>
@@ -7892,7 +7872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5">
       <c r="A441" s="2">
         <v>44331</v>
       </c>
@@ -7909,7 +7889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5">
       <c r="A442" s="2">
         <v>44332</v>
       </c>
@@ -7926,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5">
       <c r="A443" s="2">
         <v>44333</v>
       </c>
@@ -7943,7 +7923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5">
       <c r="A444" s="2">
         <v>44334</v>
       </c>
@@ -7960,7 +7940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5">
       <c r="A445" s="2">
         <v>44335</v>
       </c>
@@ -7977,7 +7957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5">
       <c r="A446" s="2">
         <v>44336</v>
       </c>
@@ -7994,7 +7974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5">
       <c r="A447" s="2">
         <v>44337</v>
       </c>
@@ -8011,7 +7991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5">
       <c r="A448" s="2">
         <v>44338</v>
       </c>
@@ -8028,7 +8008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5">
       <c r="A449" s="2">
         <v>44339</v>
       </c>
@@ -8045,7 +8025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5">
       <c r="A450" s="2">
         <v>44340</v>
       </c>
@@ -8062,7 +8042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5">
       <c r="A451" s="2">
         <v>44341</v>
       </c>
@@ -8079,7 +8059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5">
       <c r="A452" s="2">
         <v>44342</v>
       </c>
@@ -8096,7 +8076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5">
       <c r="A453" s="2">
         <v>44343</v>
       </c>
@@ -8113,7 +8093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5">
       <c r="A454" s="2">
         <v>44344</v>
       </c>
@@ -8130,7 +8110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5">
       <c r="A455" s="2">
         <v>44345</v>
       </c>
@@ -8147,7 +8127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5">
       <c r="A456" s="2">
         <v>44346</v>
       </c>
@@ -8164,7 +8144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5">
       <c r="A457" s="2">
         <v>44347</v>
       </c>
@@ -8181,7 +8161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5">
       <c r="A458" s="2">
         <v>44348</v>
       </c>
@@ -8198,7 +8178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5">
       <c r="A459" s="2">
         <v>44349</v>
       </c>
@@ -8215,7 +8195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5">
       <c r="A460" s="2">
         <v>44350</v>
       </c>
@@ -8232,7 +8212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5">
       <c r="A461" s="2">
         <v>44351</v>
       </c>
@@ -8249,7 +8229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5">
       <c r="A462" s="2">
         <v>44352</v>
       </c>
@@ -8266,7 +8246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5">
       <c r="A463" s="2">
         <v>44353</v>
       </c>
@@ -8283,7 +8263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5">
       <c r="A464" s="2">
         <v>44354</v>
       </c>
@@ -8300,7 +8280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5">
       <c r="A465" s="2">
         <v>44355</v>
       </c>
@@ -8317,7 +8297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5">
       <c r="A466" s="2">
         <v>44356</v>
       </c>
@@ -8334,7 +8314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5">
       <c r="A467" s="2">
         <v>44357</v>
       </c>
@@ -8351,7 +8331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5">
       <c r="A468" s="2">
         <v>44358</v>
       </c>
@@ -8368,7 +8348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5">
       <c r="A469" s="2">
         <v>44359</v>
       </c>
@@ -8385,7 +8365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5">
       <c r="A470" s="2">
         <v>44360</v>
       </c>
@@ -8402,7 +8382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5">
       <c r="A471" s="2">
         <v>44361</v>
       </c>
@@ -8419,7 +8399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5">
       <c r="A472" s="2">
         <v>44362</v>
       </c>
@@ -8436,7 +8416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5">
       <c r="A473" s="2">
         <v>44363</v>
       </c>
@@ -8453,7 +8433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5">
       <c r="A474" s="2">
         <v>44364</v>
       </c>
@@ -8470,7 +8450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5">
       <c r="A475" s="2">
         <v>44365</v>
       </c>
@@ -8487,7 +8467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5">
       <c r="A476" s="2">
         <v>44366</v>
       </c>
@@ -8504,7 +8484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5">
       <c r="A477" s="2">
         <v>44367</v>
       </c>
@@ -8521,7 +8501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5">
       <c r="A478" s="2">
         <v>44368</v>
       </c>
@@ -8538,7 +8518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5">
       <c r="A479" s="2">
         <v>44369</v>
       </c>
@@ -8555,7 +8535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5">
       <c r="A480" s="2">
         <v>44370</v>
       </c>
@@ -8572,7 +8552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5">
       <c r="A481" s="2">
         <v>44371</v>
       </c>
@@ -8589,7 +8569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5">
       <c r="A482" s="2">
         <v>44372</v>
       </c>
@@ -8606,7 +8586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5">
       <c r="A483" s="2">
         <v>44373</v>
       </c>
@@ -8623,7 +8603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5">
       <c r="A484" s="2">
         <v>44374</v>
       </c>
@@ -8640,7 +8620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5">
       <c r="A485" s="2">
         <v>44375</v>
       </c>
@@ -8657,7 +8637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5">
       <c r="A486" s="2">
         <v>44377</v>
       </c>
@@ -8674,7 +8654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5">
       <c r="A487" s="2">
         <v>44378</v>
       </c>
@@ -8691,7 +8671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5">
       <c r="A488" s="2">
         <v>44379</v>
       </c>
@@ -8708,7 +8688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5">
       <c r="A489" s="2">
         <v>44380</v>
       </c>
@@ -8725,7 +8705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5">
       <c r="A490" s="2">
         <v>44381</v>
       </c>
@@ -8742,7 +8722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5">
       <c r="A491" s="2">
         <v>44382</v>
       </c>
@@ -8759,7 +8739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5">
       <c r="A492" s="2">
         <v>44383</v>
       </c>
@@ -8776,7 +8756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5">
       <c r="A493" s="2">
         <v>44384</v>
       </c>
@@ -8793,7 +8773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5">
       <c r="A494" s="2">
         <v>44385</v>
       </c>
@@ -8810,7 +8790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5">
       <c r="A495" s="2">
         <v>44386</v>
       </c>
@@ -8827,7 +8807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5">
       <c r="A496" s="2">
         <v>44387</v>
       </c>
@@ -8844,7 +8824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5">
       <c r="A497" s="2">
         <v>44388</v>
       </c>
@@ -8861,7 +8841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5">
       <c r="A498" s="2">
         <v>44389</v>
       </c>
@@ -8878,7 +8858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5">
       <c r="A499" s="2">
         <v>44390</v>
       </c>
@@ -8895,7 +8875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5">
       <c r="A500" s="2">
         <v>44391</v>
       </c>
@@ -8912,7 +8892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5">
       <c r="A501" s="2">
         <v>44392</v>
       </c>
@@ -8929,7 +8909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5">
       <c r="A502" s="2">
         <v>44393</v>
       </c>
@@ -8946,7 +8926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5">
       <c r="A503" s="2">
         <v>44394</v>
       </c>
@@ -8963,7 +8943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5">
       <c r="A504" s="2">
         <v>44395</v>
       </c>
@@ -8980,7 +8960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5">
       <c r="A505" s="2">
         <v>44396</v>
       </c>
@@ -8997,7 +8977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5">
       <c r="A506" s="2">
         <v>44397</v>
       </c>
@@ -9014,7 +8994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5">
       <c r="A507" s="2">
         <v>44398</v>
       </c>
@@ -9031,7 +9011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5">
       <c r="A508" s="2">
         <v>44399</v>
       </c>
@@ -9048,7 +9028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5">
       <c r="A509" s="2">
         <v>44400</v>
       </c>
@@ -9065,7 +9045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5">
       <c r="A510" s="2">
         <v>44401</v>
       </c>
@@ -9082,7 +9062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5">
       <c r="A511" s="2">
         <v>44402</v>
       </c>
@@ -9099,7 +9079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5">
       <c r="A512" s="2">
         <v>44403</v>
       </c>
@@ -9116,7 +9096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5">
       <c r="A513" s="2">
         <v>44404</v>
       </c>
@@ -9133,7 +9113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5">
       <c r="A514" s="2">
         <v>44405</v>
       </c>
@@ -9150,7 +9130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5">
       <c r="A515" s="2">
         <v>44406</v>
       </c>
@@ -9167,7 +9147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5">
       <c r="A516" s="2">
         <v>44407</v>
       </c>
@@ -9184,7 +9164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5">
       <c r="A517" s="2">
         <v>44408</v>
       </c>
@@ -9201,7 +9181,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5">
       <c r="A518" s="2">
         <v>44409</v>
       </c>
@@ -9218,7 +9198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5">
       <c r="A519" s="2">
         <v>44410</v>
       </c>
@@ -9235,7 +9215,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5">
       <c r="A520" s="2">
         <v>44411</v>
       </c>
@@ -9252,7 +9232,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5">
       <c r="A521" s="2">
         <v>44412</v>
       </c>
@@ -9269,7 +9249,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5">
       <c r="A522" s="2">
         <v>44413</v>
       </c>
@@ -9286,7 +9266,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5">
       <c r="A523" s="2">
         <v>44414</v>
       </c>
@@ -9303,7 +9283,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5">
       <c r="A524" s="2">
         <v>44415</v>
       </c>
@@ -9320,7 +9300,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5">
       <c r="A525" s="2">
         <v>44416</v>
       </c>
@@ -9337,7 +9317,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5">
       <c r="A526" s="2">
         <v>44417</v>
       </c>
@@ -9354,7 +9334,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5">
       <c r="A527" s="2">
         <v>44418</v>
       </c>
@@ -9371,7 +9351,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5">
       <c r="A528" s="2">
         <v>44419</v>
       </c>
@@ -9388,7 +9368,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5">
       <c r="A529" s="2">
         <v>44420</v>
       </c>
@@ -9405,7 +9385,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5">
       <c r="A530" s="2">
         <v>44421</v>
       </c>
@@ -9422,7 +9402,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5">
       <c r="A531" s="2">
         <v>44422</v>
       </c>
@@ -9439,7 +9419,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5">
       <c r="A532" s="2">
         <v>44423</v>
       </c>
@@ -9456,7 +9436,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5">
       <c r="A533" s="2">
         <v>44424</v>
       </c>
@@ -9473,7 +9453,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5">
       <c r="A534" s="2">
         <v>44425</v>
       </c>
@@ -9490,7 +9470,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5">
       <c r="A535" s="2">
         <v>44426</v>
       </c>
@@ -9507,7 +9487,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5">
       <c r="A536" s="2">
         <v>44427</v>
       </c>
@@ -9524,7 +9504,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5">
       <c r="A537" s="2">
         <v>44428</v>
       </c>
@@ -9541,7 +9521,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5">
       <c r="A538" s="2">
         <v>44429</v>
       </c>
@@ -9558,7 +9538,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5">
       <c r="A539" s="2">
         <v>44430</v>
       </c>
@@ -9575,7 +9555,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5">
       <c r="A540" s="2">
         <v>44431</v>
       </c>
@@ -9592,7 +9572,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5">
       <c r="A541" s="2">
         <v>44432</v>
       </c>
@@ -9609,7 +9589,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5">
       <c r="A542" s="2">
         <v>44433</v>
       </c>
@@ -9624,6 +9604,601 @@
       </c>
       <c r="E542">
         <v>85</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" s="2">
+        <v>44434</v>
+      </c>
+      <c r="B543">
+        <v>7357</v>
+      </c>
+      <c r="C543">
+        <v>9522</v>
+      </c>
+      <c r="D543">
+        <v>37875</v>
+      </c>
+      <c r="E543">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="A544" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B544">
+        <v>6863</v>
+      </c>
+      <c r="C544">
+        <v>9188</v>
+      </c>
+      <c r="D544">
+        <v>37167</v>
+      </c>
+      <c r="E544">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" s="2">
+        <v>44436</v>
+      </c>
+      <c r="B545">
+        <v>6175</v>
+      </c>
+      <c r="C545">
+        <v>7163</v>
+      </c>
+      <c r="D545">
+        <v>35131</v>
+      </c>
+      <c r="E545">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="A546" s="2">
+        <v>44437</v>
+      </c>
+      <c r="B546">
+        <v>3841</v>
+      </c>
+      <c r="C546">
+        <v>6815</v>
+      </c>
+      <c r="D546">
+        <v>25236</v>
+      </c>
+      <c r="E546">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" s="2">
+        <v>44438</v>
+      </c>
+      <c r="B547">
+        <v>2676</v>
+      </c>
+      <c r="C547">
+        <v>7360</v>
+      </c>
+      <c r="D547">
+        <v>14838</v>
+      </c>
+      <c r="E547">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="A548" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B548">
+        <v>4899</v>
+      </c>
+      <c r="C548">
+        <v>5813</v>
+      </c>
+      <c r="D548">
+        <v>35889</v>
+      </c>
+      <c r="E548">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B549">
+        <v>6020</v>
+      </c>
+      <c r="C549">
+        <v>7057</v>
+      </c>
+      <c r="D549">
+        <v>39699</v>
+      </c>
+      <c r="E549">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5">
+      <c r="A550" s="2">
+        <v>44441</v>
+      </c>
+      <c r="B550">
+        <v>5383</v>
+      </c>
+      <c r="C550">
+        <v>6769</v>
+      </c>
+      <c r="D550">
+        <v>35540</v>
+      </c>
+      <c r="E550">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" s="2">
+        <v>44442</v>
+      </c>
+      <c r="B551">
+        <v>4381</v>
+      </c>
+      <c r="C551">
+        <v>6237</v>
+      </c>
+      <c r="D551">
+        <v>33412</v>
+      </c>
+      <c r="E551">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="A552" s="2">
+        <v>44443</v>
+      </c>
+      <c r="B552">
+        <v>4310</v>
+      </c>
+      <c r="C552">
+        <v>4926</v>
+      </c>
+      <c r="D552">
+        <v>33131</v>
+      </c>
+      <c r="E552">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="A553" s="2">
+        <v>44444</v>
+      </c>
+      <c r="B553">
+        <v>3043</v>
+      </c>
+      <c r="C553">
+        <v>4734</v>
+      </c>
+      <c r="D553">
+        <v>23402</v>
+      </c>
+      <c r="E553">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" s="2">
+        <v>44445</v>
+      </c>
+      <c r="B554">
+        <v>1923</v>
+      </c>
+      <c r="C554">
+        <v>4818</v>
+      </c>
+      <c r="D554">
+        <v>13087</v>
+      </c>
+      <c r="E554">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="A555" s="2">
+        <v>44446</v>
+      </c>
+      <c r="B555">
+        <v>3524</v>
+      </c>
+      <c r="C555">
+        <v>6395</v>
+      </c>
+      <c r="D555">
+        <v>30326</v>
+      </c>
+      <c r="E555">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5">
+      <c r="A556" s="2">
+        <v>44447</v>
+      </c>
+      <c r="B556">
+        <v>3930</v>
+      </c>
+      <c r="C556">
+        <v>5459</v>
+      </c>
+      <c r="D556">
+        <v>30566</v>
+      </c>
+      <c r="E556">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5">
+      <c r="A557" s="2">
+        <v>44448</v>
+      </c>
+      <c r="B557">
+        <v>3451</v>
+      </c>
+      <c r="C557">
+        <v>4487</v>
+      </c>
+      <c r="D557">
+        <v>26494</v>
+      </c>
+      <c r="E557">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" s="2">
+        <v>44449</v>
+      </c>
+      <c r="B558">
+        <v>2668</v>
+      </c>
+      <c r="C558">
+        <v>5192</v>
+      </c>
+      <c r="D558">
+        <v>25060</v>
+      </c>
+      <c r="E558">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="A559" s="2">
+        <v>44450</v>
+      </c>
+      <c r="B559">
+        <v>3113</v>
+      </c>
+      <c r="C559">
+        <v>3716</v>
+      </c>
+      <c r="D559">
+        <v>25830</v>
+      </c>
+      <c r="E559">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" s="2">
+        <v>44451</v>
+      </c>
+      <c r="B560">
+        <v>1953</v>
+      </c>
+      <c r="C560">
+        <v>4258</v>
+      </c>
+      <c r="D560">
+        <v>19835</v>
+      </c>
+      <c r="E560">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" s="2">
+        <v>44452</v>
+      </c>
+      <c r="B561">
+        <v>917</v>
+      </c>
+      <c r="C561">
+        <v>4451</v>
+      </c>
+      <c r="D561">
+        <v>9962</v>
+      </c>
+      <c r="E561">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" s="2">
+        <v>44453</v>
+      </c>
+      <c r="B562">
+        <v>2785</v>
+      </c>
+      <c r="C562">
+        <v>3958</v>
+      </c>
+      <c r="D562">
+        <v>26508</v>
+      </c>
+      <c r="E562">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" s="2">
+        <v>44454</v>
+      </c>
+      <c r="B563">
+        <v>2642</v>
+      </c>
+      <c r="C563">
+        <v>3240</v>
+      </c>
+      <c r="D563">
+        <v>25019</v>
+      </c>
+      <c r="E563">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" s="2">
+        <v>44455</v>
+      </c>
+      <c r="B564">
+        <v>2432</v>
+      </c>
+      <c r="C564">
+        <v>3672</v>
+      </c>
+      <c r="D564">
+        <v>23052</v>
+      </c>
+      <c r="E564">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" s="2">
+        <v>44456</v>
+      </c>
+      <c r="B565">
+        <v>2412</v>
+      </c>
+      <c r="C565">
+        <v>3624</v>
+      </c>
+      <c r="D565">
+        <v>22293</v>
+      </c>
+      <c r="E565">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" s="2">
+        <v>44457</v>
+      </c>
+      <c r="B566">
+        <v>2291</v>
+      </c>
+      <c r="C566">
+        <v>3491</v>
+      </c>
+      <c r="D566">
+        <v>21717</v>
+      </c>
+      <c r="E566">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" s="2">
+        <v>44458</v>
+      </c>
+      <c r="B567">
+        <v>1555</v>
+      </c>
+      <c r="C567">
+        <v>2064</v>
+      </c>
+      <c r="D567">
+        <v>15547</v>
+      </c>
+      <c r="E567">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" s="2">
+        <v>44459</v>
+      </c>
+      <c r="B568">
+        <v>693</v>
+      </c>
+      <c r="C568">
+        <v>3335</v>
+      </c>
+      <c r="D568">
+        <v>9629</v>
+      </c>
+      <c r="E568">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" s="2">
+        <v>44460</v>
+      </c>
+      <c r="B569">
+        <v>1848</v>
+      </c>
+      <c r="C569">
+        <v>2793</v>
+      </c>
+      <c r="D569">
+        <v>20528</v>
+      </c>
+      <c r="E569">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" s="2">
+        <v>44461</v>
+      </c>
+      <c r="B570">
+        <v>1702</v>
+      </c>
+      <c r="C570">
+        <v>2451</v>
+      </c>
+      <c r="D570">
+        <v>19629</v>
+      </c>
+      <c r="E570">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" s="2">
+        <v>44462</v>
+      </c>
+      <c r="B571">
+        <v>1583</v>
+      </c>
+      <c r="C571">
+        <v>2538</v>
+      </c>
+      <c r="D571">
+        <v>18323</v>
+      </c>
+      <c r="E571">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" s="2">
+        <v>44463</v>
+      </c>
+      <c r="B572">
+        <v>1620</v>
+      </c>
+      <c r="C572">
+        <v>2162</v>
+      </c>
+      <c r="D572">
+        <v>19129</v>
+      </c>
+      <c r="E572">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5">
+      <c r="A573" s="2">
+        <v>44464</v>
+      </c>
+      <c r="B573">
+        <v>1444</v>
+      </c>
+      <c r="C573">
+        <v>1818</v>
+      </c>
+      <c r="D573">
+        <v>18755</v>
+      </c>
+      <c r="E573">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" s="2">
+        <v>44465</v>
+      </c>
+      <c r="B574">
+        <v>734</v>
+      </c>
+      <c r="C574">
+        <v>1720</v>
+      </c>
+      <c r="D574">
+        <v>14601</v>
+      </c>
+      <c r="E574">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="A575" s="2">
+        <v>44466</v>
+      </c>
+      <c r="B575">
+        <v>394</v>
+      </c>
+      <c r="C575">
+        <v>2248</v>
+      </c>
+      <c r="D575">
+        <v>7330</v>
+      </c>
+      <c r="E575">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="A576" s="2">
+        <v>44467</v>
+      </c>
+      <c r="B576">
+        <v>1192</v>
+      </c>
+      <c r="C576">
+        <v>1558</v>
+      </c>
+      <c r="D576">
+        <v>19208</v>
+      </c>
+      <c r="E576">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5">
+      <c r="A577" s="2">
+        <v>44468</v>
+      </c>
+      <c r="B577">
+        <v>1082</v>
+      </c>
+      <c r="C577">
+        <v>1774</v>
+      </c>
+      <c r="D577">
+        <v>18079</v>
+      </c>
+      <c r="E577">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
